--- a/Black Box BVA ECP Sidharth.xlsx
+++ b/Black Box BVA ECP Sidharth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddu\eclipse-workspace\wipro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2F3FF1-73B2-4434-90E2-A44F1477430D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35201CF-D8E9-4390-AE72-8EC526D8503C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4380" xr2:uid="{143F9E3B-7A4D-4766-82EC-2644FA6EF9C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Range</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>&lt;=2</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -542,6 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F438B44C-B1FF-4BAE-A72F-4CCED211C90A}">
   <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,39 +970,39 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>45</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>82</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="52">
         <v>110</v>
       </c>
     </row>
@@ -1006,24 +1011,24 @@
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="28"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="42" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="30" t="s">
@@ -1033,22 +1038,22 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="3"/>
@@ -1057,10 +1062,10 @@
       <c r="B17" s="29">
         <v>50</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <v>66</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="29">
@@ -1075,26 +1080,26 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>15000</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="3"/>
@@ -1106,10 +1111,10 @@
       <c r="B20" s="29">
         <v>15</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <v>21</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>26</v>
       </c>
       <c r="E20" s="3"/>
@@ -1223,7 +1228,7 @@
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="28"/>
@@ -1232,17 +1237,17 @@
       <c r="B28" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1261,17 +1266,17 @@
       <c r="B31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="31"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1290,17 +1295,17 @@
       <c r="B34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="31"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="3"/>
@@ -1333,10 +1338,10 @@
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1347,10 +1352,10 @@
       <c r="B39" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1358,13 +1363,13 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="3"/>
@@ -1391,23 +1396,23 @@
       <c r="B42" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="40" t="s">
+      <c r="B43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="3"/>
@@ -1416,13 +1421,13 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="45">
+      <c r="B44" s="44">
         <v>65</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="44">
         <v>105</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="3"/>
@@ -1526,27 +1531,27 @@
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="28"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1562,22 +1567,22 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>0.1</v>
       </c>
       <c r="D55" s="31"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1593,22 +1598,22 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="37">
         <v>0.25</v>
       </c>
       <c r="D58" s="31"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="36" t="s">
+      <c r="B59" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1624,22 +1629,22 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="37">
         <v>0.35</v>
       </c>
       <c r="D61" s="31"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="35" t="s">
+      <c r="B62" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1647,8 +1652,8 @@
       <c r="B63" s="29">
         <v>5</v>
       </c>
-      <c r="C63" s="34">
-        <v>0.15</v>
+      <c r="C63" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>35</v>
@@ -1659,7 +1664,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B39 B47" twoDigitTextYear="1"/>
-    <ignoredError sqref="B57:C57" numberStoredAsText="1"/>
+    <ignoredError sqref="B57:C57 C63" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>